--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt2b-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt2b-Fzd7.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.146258333333333</v>
+        <v>1.009582666666667</v>
       </c>
       <c r="H2">
-        <v>6.438775</v>
+        <v>3.028748</v>
       </c>
       <c r="I2">
-        <v>0.3745961416936294</v>
+        <v>0.2254436189979109</v>
       </c>
       <c r="J2">
-        <v>0.3745961416936293</v>
+        <v>0.2254436189979109</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.553279333333334</v>
+        <v>0.6068319999999999</v>
       </c>
       <c r="N2">
-        <v>7.659838000000001</v>
+        <v>1.820496</v>
       </c>
       <c r="O2">
-        <v>0.1645043904057808</v>
+        <v>0.03392274820144286</v>
       </c>
       <c r="P2">
-        <v>0.1645043904057808</v>
+        <v>0.03392274820144286</v>
       </c>
       <c r="Q2">
-        <v>5.479997046494446</v>
+        <v>0.6126470687786665</v>
       </c>
       <c r="R2">
-        <v>49.31997341845</v>
+        <v>5.513823619007999</v>
       </c>
       <c r="S2">
-        <v>0.06162270993766799</v>
+        <v>0.007647667120888151</v>
       </c>
       <c r="T2">
-        <v>0.06162270993766798</v>
+        <v>0.007647667120888152</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.146258333333333</v>
+        <v>1.009582666666667</v>
       </c>
       <c r="H3">
-        <v>6.438775</v>
+        <v>3.028748</v>
       </c>
       <c r="I3">
-        <v>0.3745961416936294</v>
+        <v>0.2254436189979109</v>
       </c>
       <c r="J3">
-        <v>0.3745961416936293</v>
+        <v>0.2254436189979109</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>24.175986</v>
       </c>
       <c r="O3">
-        <v>0.5192088709172035</v>
+        <v>0.4504903529585388</v>
       </c>
       <c r="P3">
-        <v>0.5192088709172036</v>
+        <v>0.4504903529585388</v>
       </c>
       <c r="Q3">
-        <v>17.29597047301667</v>
+        <v>8.135885471725333</v>
       </c>
       <c r="R3">
-        <v>155.66373425715</v>
+        <v>73.22296924552801</v>
       </c>
       <c r="S3">
-        <v>0.1944936397786901</v>
+        <v>0.1015601754946192</v>
       </c>
       <c r="T3">
-        <v>0.1944936397786901</v>
+        <v>0.1015601754946192</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.146258333333333</v>
+        <v>1.009582666666667</v>
       </c>
       <c r="H4">
-        <v>6.438775</v>
+        <v>3.028748</v>
       </c>
       <c r="I4">
-        <v>0.3745961416936294</v>
+        <v>0.2254436189979109</v>
       </c>
       <c r="J4">
-        <v>0.3745961416936293</v>
+        <v>0.2254436189979109</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.909099333333333</v>
+        <v>9.223151</v>
       </c>
       <c r="N4">
-        <v>14.727298</v>
+        <v>27.669453</v>
       </c>
       <c r="O4">
-        <v>0.3162867386770156</v>
+        <v>0.5155868988400183</v>
       </c>
       <c r="P4">
-        <v>0.3162867386770157</v>
+        <v>0.5155868988400183</v>
       </c>
       <c r="Q4">
-        <v>10.53619535332778</v>
+        <v>9.311533381649332</v>
       </c>
       <c r="R4">
-        <v>94.82575817994999</v>
+        <v>83.80380043484399</v>
       </c>
       <c r="S4">
-        <v>0.1184797919772713</v>
+        <v>0.1162357763824035</v>
       </c>
       <c r="T4">
-        <v>0.1184797919772713</v>
+        <v>0.1162357763824035</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>5.899012</v>
       </c>
       <c r="I5">
-        <v>0.3431937185263377</v>
+        <v>0.4390905462561113</v>
       </c>
       <c r="J5">
-        <v>0.3431937185263377</v>
+        <v>0.4390905462561113</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.553279333333334</v>
+        <v>0.6068319999999999</v>
       </c>
       <c r="N5">
-        <v>7.659838000000001</v>
+        <v>1.820496</v>
       </c>
       <c r="O5">
-        <v>0.1645043904057808</v>
+        <v>0.03392274820144286</v>
       </c>
       <c r="P5">
-        <v>0.1645043904057808</v>
+        <v>0.03392274820144286</v>
       </c>
       <c r="Q5">
-        <v>5.020608475561779</v>
+        <v>1.193236416661333</v>
       </c>
       <c r="R5">
-        <v>45.185476280056</v>
+        <v>10.739127749952</v>
       </c>
       <c r="S5">
-        <v>0.0564568734572683</v>
+        <v>0.01489515803828006</v>
       </c>
       <c r="T5">
-        <v>0.0564568734572683</v>
+        <v>0.01489515803828006</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>5.899012</v>
       </c>
       <c r="I6">
-        <v>0.3431937185263377</v>
+        <v>0.4390905462561113</v>
       </c>
       <c r="J6">
-        <v>0.3431937185263377</v>
+        <v>0.4390905462561113</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>24.175986</v>
       </c>
       <c r="O6">
-        <v>0.5192088709172035</v>
+        <v>0.4504903529585388</v>
       </c>
       <c r="P6">
-        <v>0.5192088709172036</v>
+        <v>0.4504903529585388</v>
       </c>
       <c r="Q6">
         <v>15.84604794731467</v>
@@ -818,10 +818,10 @@
         <v>142.614431525832</v>
       </c>
       <c r="S6">
-        <v>0.1781892231019363</v>
+        <v>0.1978060551636732</v>
       </c>
       <c r="T6">
-        <v>0.1781892231019364</v>
+        <v>0.1978060551636732</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>5.899012</v>
       </c>
       <c r="I7">
-        <v>0.3431937185263377</v>
+        <v>0.4390905462561113</v>
       </c>
       <c r="J7">
-        <v>0.3431937185263377</v>
+        <v>0.4390905462561113</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.909099333333333</v>
+        <v>9.223151</v>
       </c>
       <c r="N7">
-        <v>14.727298</v>
+        <v>27.669453</v>
       </c>
       <c r="O7">
-        <v>0.3162867386770156</v>
+        <v>0.5155868988400183</v>
       </c>
       <c r="P7">
-        <v>0.3162867386770157</v>
+        <v>0.5155868988400183</v>
       </c>
       <c r="Q7">
-        <v>9.65294529217511</v>
+        <v>18.13582614227067</v>
       </c>
       <c r="R7">
-        <v>86.876507629576</v>
+        <v>163.222435280436</v>
       </c>
       <c r="S7">
-        <v>0.108547621967133</v>
+        <v>0.226389333054158</v>
       </c>
       <c r="T7">
-        <v>0.108547621967133</v>
+        <v>0.226389333054158</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.616930333333333</v>
+        <v>1.502284666666667</v>
       </c>
       <c r="H8">
-        <v>4.850791</v>
+        <v>4.506854000000001</v>
       </c>
       <c r="I8">
-        <v>0.282210139780033</v>
+        <v>0.3354658347459779</v>
       </c>
       <c r="J8">
-        <v>0.282210139780033</v>
+        <v>0.3354658347459779</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.553279333333334</v>
+        <v>0.6068319999999999</v>
       </c>
       <c r="N8">
-        <v>7.659838000000001</v>
+        <v>1.820496</v>
       </c>
       <c r="O8">
-        <v>0.1645043904057808</v>
+        <v>0.03392274820144286</v>
       </c>
       <c r="P8">
-        <v>0.1645043904057808</v>
+        <v>0.03392274820144286</v>
       </c>
       <c r="Q8">
-        <v>4.128474803539778</v>
+        <v>0.9116344088426667</v>
       </c>
       <c r="R8">
-        <v>37.156273231858</v>
+        <v>8.204709679584001</v>
       </c>
       <c r="S8">
-        <v>0.04642480701084452</v>
+        <v>0.01137992304227465</v>
       </c>
       <c r="T8">
-        <v>0.04642480701084452</v>
+        <v>0.01137992304227465</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.616930333333333</v>
+        <v>1.502284666666667</v>
       </c>
       <c r="H9">
-        <v>4.850791</v>
+        <v>4.506854000000001</v>
       </c>
       <c r="I9">
-        <v>0.282210139780033</v>
+        <v>0.3354658347459779</v>
       </c>
       <c r="J9">
-        <v>0.282210139780033</v>
+        <v>0.3354658347459779</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>24.175986</v>
       </c>
       <c r="O9">
-        <v>0.5192088709172035</v>
+        <v>0.4504903529585388</v>
       </c>
       <c r="P9">
-        <v>0.5192088709172036</v>
+        <v>0.4504903529585388</v>
       </c>
       <c r="Q9">
-        <v>13.03029503388067</v>
+        <v>12.10640435644934</v>
       </c>
       <c r="R9">
-        <v>117.272655304926</v>
+        <v>108.957639208044</v>
       </c>
       <c r="S9">
-        <v>0.1465260080365771</v>
+        <v>0.1511241223002464</v>
       </c>
       <c r="T9">
-        <v>0.1465260080365771</v>
+        <v>0.1511241223002464</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.616930333333333</v>
+        <v>1.502284666666667</v>
       </c>
       <c r="H10">
-        <v>4.850791</v>
+        <v>4.506854000000001</v>
       </c>
       <c r="I10">
-        <v>0.282210139780033</v>
+        <v>0.3354658347459779</v>
       </c>
       <c r="J10">
-        <v>0.282210139780033</v>
+        <v>0.3354658347459779</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.909099333333333</v>
+        <v>9.223151</v>
       </c>
       <c r="N10">
-        <v>14.727298</v>
+        <v>27.669453</v>
       </c>
       <c r="O10">
-        <v>0.3162867386770156</v>
+        <v>0.5155868988400183</v>
       </c>
       <c r="P10">
-        <v>0.3162867386770157</v>
+        <v>0.5155868988400183</v>
       </c>
       <c r="Q10">
-        <v>7.93767162141311</v>
+        <v>13.85579832565134</v>
       </c>
       <c r="R10">
-        <v>71.43904459271799</v>
+        <v>124.702184930862</v>
       </c>
       <c r="S10">
-        <v>0.08925932473261135</v>
+        <v>0.1729617894034568</v>
       </c>
       <c r="T10">
-        <v>0.08925932473261136</v>
+        <v>0.1729617894034568</v>
       </c>
     </row>
   </sheetData>
